--- a/output/ScriptResults/Database_Thresholds_20240715.xlsx
+++ b/output/ScriptResults/Database_Thresholds_20240715.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hill_T\Desktop\SEACAR GitHub\IndicatorQuantiles\output\ScriptResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9DE69-46A3-487F-820B-8503F1B22616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1791FFD4-F2EE-4CAB-A1A2-8B95E01DC65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholds in Database" sheetId="1" r:id="rId1"/>
@@ -30,45 +30,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="170">
   <si>
-    <t>Just a database ID. Retaining this in future correspondence will allow for the most efficient update, based on this single column.</t>
-  </si>
-  <si>
-    <t>Standard Habitat as defined by the SEACAR project.</t>
-  </si>
-  <si>
-    <t>Database ID from the Indicator table.</t>
-  </si>
-  <si>
-    <t>Database ID from the Parameter table.</t>
-  </si>
-  <si>
-    <t>Standard Indicator Name as defined by the SEACAR project.</t>
-  </si>
-  <si>
-    <t>Shorthand reference for Habitat-CombinedTable. Used frequently in the database to identify the 8 individual Combined Tables.</t>
-  </si>
-  <si>
-    <t>Standard Parameter Name as defined by the SEACAR project.</t>
-  </si>
-  <si>
     <t>Parameter Units.</t>
   </si>
   <si>
-    <t>Quad Size for applicable Parameters.</t>
-  </si>
-  <si>
     <t>Range of expected values.</t>
   </si>
   <si>
-    <t>Value Conversions.</t>
-  </si>
-  <si>
     <t>Is the Parameter value calculated in the database?</t>
   </si>
   <si>
-    <t>Are the values applicable to specific species?</t>
-  </si>
-  <si>
     <t>Threshold and Quantile Values</t>
   </si>
   <si>
@@ -528,16 +498,46 @@
     <t>Database_Thresholds.xlsx, Git Commit ID: 51214cf344547100c5a54d26465d79cec9558701</t>
   </si>
   <si>
-    <t>Low Threshold for inclusion. Values "Less Than Or Equal To" are flagged.</t>
-  </si>
-  <si>
-    <t>High Threshold for inclusion. Values "Greater Than Or Equal To" are flagged.</t>
-  </si>
-  <si>
-    <t>Low Quantile value. Values "Less Than Or Equal To" are flagged.</t>
-  </si>
-  <si>
-    <t>High Quantile value. Values "Greater Than Or Equal To" are flagged.</t>
+    <t>Database ID assigned to each threshold record.</t>
+  </si>
+  <si>
+    <t>Database ID assigned to each parameter.</t>
+  </si>
+  <si>
+    <t>Standard habitat name, as defined by the SEACAR project.</t>
+  </si>
+  <si>
+    <t>Database ID assigned to each indicator.</t>
+  </si>
+  <si>
+    <t>Standard indicator name, as defined by the SEACAR project.</t>
+  </si>
+  <si>
+    <t>Shorthand reference for Habitat-CombinedTable. Used frequently in the database to identify the 8 individual combined tables.</t>
+  </si>
+  <si>
+    <t>Standard parameter name, as defined by the SEACAR project.</t>
+  </si>
+  <si>
+    <t>Low threshold for including records in the SEACAR meta-analyses. Values "less than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>High threshold for including records in the SEACAR meta-analyses. Values "greater than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>Quadrat size for applicable parameters.</t>
+  </si>
+  <si>
+    <t>Value conversions.</t>
+  </si>
+  <si>
+    <t>Low quantile value (0.1 percentile value for all records in the SEACAR database). Values "less than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>High quantile (99.9 percentile value for all records in the SEACAR database). Values "greater than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>Is the threshold and/or quantile value(s) applicable only to parameter values associated with one or more specific species?</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,139 +966,139 @@
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="M5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="S7" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1109,22 +1109,22 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <v>-9.9999999999999995E-7</v>
@@ -1138,10 +1138,10 @@
       <c r="T8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y8" s="6">
         <v>45488</v>
@@ -1155,28 +1155,28 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I9">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>-9.9999999999999995E-7</v>
@@ -1191,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T9" s="6">
         <v>45488</v>
       </c>
       <c r="U9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V9" s="6">
         <v>45488</v>
       </c>
       <c r="X9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y9" s="6">
         <v>45488</v>
@@ -1217,22 +1217,22 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I10">
         <v>-9.9999999999999995E-7</v>
@@ -1250,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T10" s="6">
         <v>45488</v>
       </c>
       <c r="U10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V10" s="6">
         <v>45488</v>
       </c>
       <c r="X10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y10" s="6">
         <v>45488</v>
@@ -1276,28 +1276,28 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>-9.9999999999999995E-7</v>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="T11" s="6"/>
       <c r="U11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V11" s="6">
         <v>45314</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y11" s="6">
         <v>45488</v>
@@ -1333,22 +1333,22 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I12">
         <v>-9.9999999999999995E-7</v>
@@ -1362,10 +1362,10 @@
       <c r="T12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y12" s="6">
         <v>45488</v>
@@ -1379,22 +1379,22 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>-9.9999999999999995E-7</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T13" s="6">
         <v>45488</v>
       </c>
       <c r="U13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V13" s="6">
         <v>45488</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y13" s="6">
         <v>45488</v>
@@ -1438,22 +1438,22 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>-9.9999999999999995E-7</v>
@@ -1468,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T14" s="6">
         <v>45488</v>
       </c>
       <c r="U14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V14" s="6">
         <v>45488</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y14" s="6">
         <v>45488</v>
@@ -1494,22 +1494,22 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T15" s="6">
         <v>45488</v>
@@ -1527,10 +1527,10 @@
         <v>45488</v>
       </c>
       <c r="W15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="X15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y15" s="6">
         <v>45488</v>
@@ -1544,22 +1544,22 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>-9.9999999999999995E-7</v>
@@ -1577,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T16" s="6">
         <v>45488</v>
       </c>
       <c r="U16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V16" s="6">
         <v>45488</v>
       </c>
       <c r="X16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y16" s="6">
         <v>45488</v>
@@ -1603,28 +1603,28 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T17" s="6">
         <v>45488</v>
@@ -1642,10 +1642,10 @@
         <v>45488</v>
       </c>
       <c r="W17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="X17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y17" s="6">
         <v>45488</v>
@@ -1659,22 +1659,22 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1684,16 +1684,16 @@
       </c>
       <c r="T18" s="6"/>
       <c r="U18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="V18" s="6">
         <v>45257</v>
       </c>
       <c r="W18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="X18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y18" s="6">
         <v>45488</v>
@@ -1707,22 +1707,22 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>-9.9999999999999995E-7</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T19" s="6">
         <v>45488</v>
       </c>
       <c r="U19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V19" s="6">
         <v>45488</v>
       </c>
       <c r="X19" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y19" s="6">
         <v>45488</v>
@@ -1766,22 +1766,22 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I20">
         <v>-9.9999999999999995E-7</v>
@@ -1799,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T20" s="6">
         <v>45488</v>
       </c>
       <c r="U20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V20" s="6">
         <v>45488</v>
       </c>
       <c r="X20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y20" s="6">
         <v>45488</v>
@@ -1825,22 +1825,22 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>-9.9999999999999995E-7</v>
@@ -1858,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T21" s="6">
         <v>45488</v>
       </c>
       <c r="U21" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V21" s="6">
         <v>45488</v>
       </c>
       <c r="X21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y21" s="6">
         <v>45488</v>
@@ -1884,22 +1884,22 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I22">
         <v>-9.9999999999999995E-7</v>
@@ -1917,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T22" s="6">
         <v>45488</v>
       </c>
       <c r="U22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V22" s="6">
         <v>45488</v>
       </c>
       <c r="X22" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y22" s="6">
         <v>45488</v>
@@ -1943,28 +1943,28 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I23">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>-9.9999999999999995E-7</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T23" s="6">
         <v>45488</v>
       </c>
       <c r="U23" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V23" s="6">
         <v>45488</v>
       </c>
       <c r="X23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y23" s="6">
         <v>45488</v>
@@ -2005,28 +2005,28 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I24">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>-9.9999999999999995E-7</v>
@@ -2041,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T24" s="6">
         <v>45488</v>
       </c>
       <c r="U24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V24" s="6">
         <v>45488</v>
       </c>
       <c r="X24" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y24" s="6">
         <v>45488</v>
@@ -2067,22 +2067,22 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I25">
         <v>-9.9999999999999995E-7</v>
@@ -2096,10 +2096,10 @@
       <c r="T25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="X25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y25" s="6">
         <v>45488</v>
@@ -2113,22 +2113,22 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <v>-9.9999999999999995E-7</v>
@@ -2146,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T26" s="6">
         <v>45488</v>
       </c>
       <c r="U26" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V26" s="6">
         <v>45488</v>
       </c>
       <c r="X26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y26" s="6">
         <v>45488</v>
@@ -2172,28 +2172,28 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N27">
         <v>-9.9999999999999995E-7</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T27" s="6">
         <v>45488</v>
       </c>
       <c r="U27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V27" s="6">
         <v>45488</v>
       </c>
       <c r="X27" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y27" s="6">
         <v>45488</v>
@@ -2234,22 +2234,22 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>-9.9999999999999995E-7</v>
@@ -2258,7 +2258,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>-9.9999999999999995E-7</v>
@@ -2273,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T28" s="6">
         <v>45488</v>
       </c>
       <c r="U28" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V28" s="6">
         <v>45488</v>
       </c>
       <c r="X28" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y28" s="6">
         <v>45488</v>
@@ -2299,22 +2299,22 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>-9.9999999999999995E-7</v>
@@ -2323,7 +2323,7 @@
         <v>0.1</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N29">
         <v>-9.9999999999999995E-7</v>
@@ -2339,13 +2339,13 @@
       </c>
       <c r="T29" s="6"/>
       <c r="U29" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V29" s="6">
         <v>45314</v>
       </c>
       <c r="X29" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y29" s="6">
         <v>45488</v>
@@ -2359,22 +2359,22 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>-9.9999999999999995E-7</v>
@@ -2383,7 +2383,7 @@
         <v>0.25</v>
       </c>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>-9.9999999999999995E-7</v>
@@ -2398,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T30" s="6">
         <v>45488</v>
       </c>
       <c r="U30" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V30" s="6">
         <v>45488</v>
       </c>
       <c r="X30" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y30" s="6">
         <v>45488</v>
@@ -2424,22 +2424,22 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>-9.9999999999999995E-7</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N31">
         <v>-9.9999999999999995E-7</v>
@@ -2464,13 +2464,13 @@
       </c>
       <c r="T31" s="6"/>
       <c r="U31" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V31" s="6">
         <v>45314</v>
       </c>
       <c r="X31" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y31" s="6">
         <v>45488</v>
@@ -2484,28 +2484,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>-9.9999999999999995E-7</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T32" s="6">
         <v>45488</v>
       </c>
       <c r="U32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V32" s="6">
         <v>45488</v>
       </c>
       <c r="X32" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y32" s="6">
         <v>45488</v>
@@ -2546,22 +2546,22 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>-9.9999999999999995E-7</v>
@@ -2570,7 +2570,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N33">
         <v>-9.9999999999999995E-7</v>
@@ -2585,19 +2585,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T33" s="6">
         <v>45488</v>
       </c>
       <c r="U33" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V33" s="6">
         <v>45488</v>
       </c>
       <c r="X33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y33" s="6">
         <v>45488</v>
@@ -2611,22 +2611,22 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>-9.9999999999999995E-7</v>
@@ -2635,7 +2635,7 @@
         <v>0.1</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>-9.9999999999999995E-7</v>
@@ -2651,13 +2651,13 @@
       </c>
       <c r="T34" s="6"/>
       <c r="U34" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V34" s="6">
         <v>45314</v>
       </c>
       <c r="X34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y34" s="6">
         <v>45488</v>
@@ -2671,22 +2671,22 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>-9.9999999999999995E-7</v>
@@ -2695,7 +2695,7 @@
         <v>0.25</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N35">
         <v>-9.9999999999999995E-7</v>
@@ -2710,19 +2710,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T35" s="6">
         <v>45488</v>
       </c>
       <c r="U35" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V35" s="6">
         <v>45488</v>
       </c>
       <c r="X35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y35" s="6">
         <v>45488</v>
@@ -2736,22 +2736,22 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I36">
         <v>-9.9999999999999995E-7</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>-9.9999999999999995E-7</v>
@@ -2776,13 +2776,13 @@
       </c>
       <c r="T36" s="6"/>
       <c r="U36" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V36" s="6">
         <v>45314</v>
       </c>
       <c r="X36" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y36" s="6">
         <v>45488</v>
@@ -2796,28 +2796,28 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N37">
         <v>-9.9999999999999995E-7</v>
@@ -2832,19 +2832,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T37" s="6">
         <v>45488</v>
       </c>
       <c r="U37" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V37" s="6">
         <v>45488</v>
       </c>
       <c r="X37" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y37" s="6">
         <v>45488</v>
@@ -2858,22 +2858,22 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I38">
         <v>-9.9999999999999995E-7</v>
@@ -2882,7 +2882,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N38">
         <v>-9.9999999999999995E-7</v>
@@ -2897,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T38" s="6">
         <v>45488</v>
       </c>
       <c r="U38" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V38" s="6">
         <v>45488</v>
       </c>
       <c r="X38" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y38" s="6">
         <v>45488</v>
@@ -2923,22 +2923,22 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>-9.9999999999999995E-7</v>
@@ -2947,7 +2947,7 @@
         <v>0.1</v>
       </c>
       <c r="L39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N39">
         <v>-9.9999999999999995E-7</v>
@@ -2963,13 +2963,13 @@
       </c>
       <c r="T39" s="6"/>
       <c r="U39" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V39" s="6">
         <v>45314</v>
       </c>
       <c r="X39" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y39" s="6">
         <v>45488</v>
@@ -2983,22 +2983,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I40">
         <v>-9.9999999999999995E-7</v>
@@ -3007,7 +3007,7 @@
         <v>0.25</v>
       </c>
       <c r="L40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N40">
         <v>-9.9999999999999995E-7</v>
@@ -3022,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T40" s="6">
         <v>45488</v>
       </c>
       <c r="U40" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V40" s="6">
         <v>45488</v>
       </c>
       <c r="X40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y40" s="6">
         <v>45488</v>
@@ -3048,22 +3048,22 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>-9.9999999999999995E-7</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N41">
         <v>-9.9999999999999995E-7</v>
@@ -3088,13 +3088,13 @@
       </c>
       <c r="T41" s="6"/>
       <c r="U41" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V41" s="6">
         <v>45314</v>
       </c>
       <c r="X41" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y41" s="6">
         <v>45488</v>
@@ -3108,22 +3108,22 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I42">
         <v>-9.9999999999999995E-7</v>
@@ -3141,19 +3141,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T42" s="6">
         <v>45488</v>
       </c>
       <c r="U42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V42" s="6">
         <v>45488</v>
       </c>
       <c r="X42" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y42" s="6">
         <v>45488</v>
@@ -3167,22 +3167,22 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I43">
         <v>-9.9999999999999995E-7</v>
@@ -3200,19 +3200,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T43" s="6">
         <v>45488</v>
       </c>
       <c r="U43" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V43" s="6">
         <v>45488</v>
       </c>
       <c r="X43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y43" s="6">
         <v>45488</v>
@@ -3226,22 +3226,22 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I44">
         <v>-9.9999999999999995E-7</v>
@@ -3259,19 +3259,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T44" s="6">
         <v>45488</v>
       </c>
       <c r="U44" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V44" s="6">
         <v>45488</v>
       </c>
       <c r="X44" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y44" s="6">
         <v>45488</v>
@@ -3285,22 +3285,22 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I45">
         <v>-9.9999999999999995E-7</v>
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T45" s="6">
         <v>45488</v>
       </c>
       <c r="U45" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V45" s="6">
         <v>45488</v>
       </c>
       <c r="X45" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y45" s="6">
         <v>45488</v>
@@ -3347,22 +3347,22 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I46">
         <v>-9.9999999999999995E-7</v>
@@ -3384,11 +3384,11 @@
       </c>
       <c r="T46" s="6"/>
       <c r="U46" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V46" s="6"/>
       <c r="X46" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y46" s="6">
         <v>45488</v>
@@ -3402,22 +3402,22 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I47">
         <v>-9.9999999999999995E-7</v>
@@ -3438,19 +3438,19 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T47" s="6">
         <v>45488</v>
       </c>
       <c r="U47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V47" s="6">
         <v>45488</v>
       </c>
       <c r="X47" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y47" s="6">
         <v>45488</v>
@@ -3464,22 +3464,22 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I48">
         <v>-9.9999999999999995E-7</v>
@@ -3500,19 +3500,19 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T48" s="6">
         <v>45488</v>
       </c>
       <c r="U48" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V48" s="6">
         <v>45488</v>
       </c>
       <c r="X48" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y48" s="6">
         <v>45488</v>
@@ -3526,22 +3526,22 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I49">
         <v>-9.9999999999999995E-7</v>
@@ -3563,13 +3563,13 @@
       </c>
       <c r="T49" s="6"/>
       <c r="U49" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V49" s="6">
         <v>45314</v>
       </c>
       <c r="X49" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y49" s="6">
         <v>45488</v>
@@ -3583,22 +3583,22 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I50">
         <v>-9.9999999999999995E-7</v>
@@ -3612,10 +3612,10 @@
       <c r="T50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="X50" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y50" s="6">
         <v>45488</v>
@@ -3629,25 +3629,25 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T51" s="6">
         <v>45488</v>
@@ -3665,10 +3665,10 @@
         <v>45488</v>
       </c>
       <c r="W51" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="X51" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y51" s="6">
         <v>45488</v>
@@ -3682,28 +3682,28 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
+        <v>133</v>
+      </c>
+      <c r="T52" s="6">
+        <v>45488</v>
+      </c>
+      <c r="V52" s="6">
+        <v>45488</v>
+      </c>
+      <c r="W52" t="s">
         <v>143</v>
       </c>
-      <c r="T52" s="6">
-        <v>45488</v>
-      </c>
-      <c r="V52" s="6">
-        <v>45488</v>
-      </c>
-      <c r="W52" t="s">
-        <v>153</v>
-      </c>
       <c r="X52" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y52" s="6">
         <v>45488</v>
@@ -3738,28 +3738,28 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I53">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L53" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>-9.9999999999999995E-7</v>
@@ -3774,19 +3774,19 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T53" s="6">
         <v>45488</v>
       </c>
       <c r="U53" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V53" s="6">
         <v>45488</v>
       </c>
       <c r="X53" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y53" s="6">
         <v>45488</v>
@@ -3800,22 +3800,22 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I54">
         <v>-9.9999999999999995E-7</v>
@@ -3833,22 +3833,22 @@
         <v>1</v>
       </c>
       <c r="S54" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T54" s="6">
         <v>45488</v>
       </c>
       <c r="U54" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V54" s="6">
         <v>45488</v>
       </c>
       <c r="W54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="X54" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y54" s="6">
         <v>45488</v>
@@ -3862,28 +3862,28 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I55">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N55">
         <v>-9.9999999999999995E-7</v>
@@ -3898,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T55" s="6">
         <v>45488</v>
       </c>
       <c r="U55" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V55" s="6">
         <v>45488</v>
       </c>
       <c r="X55" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y55" s="6">
         <v>45488</v>
@@ -3924,28 +3924,28 @@
         <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H56" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I56">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="N56">
         <v>-9.9999999999999995E-7</v>
@@ -3960,22 +3960,22 @@
         <v>1</v>
       </c>
       <c r="S56" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T56" s="6">
         <v>45488</v>
       </c>
       <c r="U56" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V56" s="6">
         <v>45488</v>
       </c>
       <c r="W56" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="X56" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y56" s="6">
         <v>45488</v>
@@ -3989,28 +3989,28 @@
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L57" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M57" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T57" s="6">
         <v>45488</v>
@@ -4028,10 +4028,10 @@
         <v>45488</v>
       </c>
       <c r="W57" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="X57" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y57" s="6">
         <v>45488</v>
@@ -4045,22 +4045,22 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s">
-        <v>83</v>
       </c>
       <c r="I58">
         <v>-9.9999999999999995E-7</v>
@@ -4073,16 +4073,16 @@
       </c>
       <c r="T58" s="6"/>
       <c r="U58" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V58" s="6">
         <v>45314</v>
       </c>
       <c r="W58" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X58" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y58" s="6">
         <v>45488</v>
@@ -4096,22 +4096,22 @@
         <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I59">
         <v>-9.9999999999999995E-7</v>
@@ -4129,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T59" s="6">
         <v>45488</v>
       </c>
       <c r="U59" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V59" s="6">
         <v>45488</v>
       </c>
       <c r="X59" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y59" s="6">
         <v>45488</v>
@@ -4155,22 +4155,22 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I60">
         <v>9.9999999999999995E-7</v>
@@ -4184,10 +4184,10 @@
       <c r="T60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="X60" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y60" s="6">
         <v>45488</v>
@@ -4201,28 +4201,28 @@
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D61">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L61" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M61" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T61" s="6">
         <v>45488</v>
@@ -4240,10 +4240,10 @@
         <v>45488</v>
       </c>
       <c r="W61" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="X61" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y61" s="6">
         <v>45488</v>
@@ -4257,22 +4257,22 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I62">
         <v>9.9999999999999995E-7</v>
@@ -4286,10 +4286,10 @@
       <c r="T62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="X62" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y62" s="6">
         <v>45488</v>
@@ -4303,22 +4303,22 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D63">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I63">
         <v>9.9999999999999995E-7</v>
@@ -4336,19 +4336,19 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T63" s="6">
         <v>45488</v>
       </c>
       <c r="U63" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V63" s="6">
         <v>45488</v>
       </c>
       <c r="X63" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y63" s="6">
         <v>45488</v>
@@ -4362,22 +4362,22 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I64">
         <v>9.9999999999999995E-7</v>
@@ -4391,10 +4391,10 @@
       <c r="T64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="X64" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y64" s="6">
         <v>45488</v>
@@ -4408,22 +4408,22 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I65">
         <v>9.9999999999999995E-7</v>
@@ -4437,10 +4437,10 @@
       <c r="T65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="X65" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y65" s="6">
         <v>45488</v>
@@ -4454,22 +4454,22 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D66">
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N66">
         <v>3.0439999999999998E-3</v>
@@ -4484,19 +4484,19 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T66" s="6">
         <v>45488</v>
       </c>
       <c r="U66" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V66" s="6">
         <v>45488</v>
       </c>
       <c r="X66" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y66" s="6">
         <v>45488</v>
@@ -4510,22 +4510,22 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D67">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N67">
         <v>-2.5045000000000001E-2</v>
@@ -4540,19 +4540,19 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T67" s="6">
         <v>45488</v>
       </c>
       <c r="U67" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V67" s="6">
         <v>45488</v>
       </c>
       <c r="X67" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y67" s="6">
         <v>45488</v>
@@ -4566,22 +4566,22 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D68">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N68">
         <v>-2.3E-3</v>
@@ -4596,19 +4596,19 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T68" s="6">
         <v>45488</v>
       </c>
       <c r="U68" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V68" s="6">
         <v>45488</v>
       </c>
       <c r="X68" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y68" s="6">
         <v>45488</v>
@@ -4622,22 +4622,22 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D69">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N69">
         <v>-9.9999999999999995E-7</v>
@@ -4652,19 +4652,19 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T69" s="6">
         <v>45488</v>
       </c>
       <c r="U69" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V69" s="6">
         <v>45488</v>
       </c>
       <c r="X69" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y69" s="6">
         <v>45488</v>
@@ -4678,22 +4678,22 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D70">
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N70">
         <v>-9.9999999999999995E-7</v>
@@ -4708,19 +4708,19 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T70" s="6">
         <v>45488</v>
       </c>
       <c r="U70" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V70" s="6">
         <v>45488</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y70" s="6">
         <v>45488</v>
@@ -4734,22 +4734,22 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D71">
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N71">
         <v>2.9000000000000001E-2</v>
@@ -4765,11 +4765,11 @@
       </c>
       <c r="T71" s="6"/>
       <c r="U71" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V71" s="6"/>
       <c r="X71" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y71" s="6">
         <v>45488</v>
@@ -4783,22 +4783,22 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D72">
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N72">
         <v>-7.0000000000000001E-3</v>
@@ -4813,19 +4813,19 @@
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T72" s="6">
         <v>45488</v>
       </c>
       <c r="U72" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V72" s="6">
         <v>45488</v>
       </c>
       <c r="X72" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y72" s="6">
         <v>45488</v>
@@ -4839,22 +4839,22 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D73">
         <v>6</v>
       </c>
       <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s">
         <v>90</v>
       </c>
-      <c r="F73" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" t="s">
-        <v>100</v>
-      </c>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N73">
         <v>-9.9999999999999995E-7</v>
@@ -4869,19 +4869,19 @@
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T73" s="6">
         <v>45488</v>
       </c>
       <c r="U73" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V73" s="6">
         <v>45488</v>
       </c>
       <c r="X73" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y73" s="6">
         <v>45488</v>
@@ -4895,22 +4895,22 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D74">
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s">
         <v>91</v>
       </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N74">
         <v>6.9999999999999994E-5</v>
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T74" s="6">
         <v>45488</v>
       </c>
       <c r="U74" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V74" s="6">
         <v>45488</v>
       </c>
       <c r="X74" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y74" s="6">
         <v>45488</v>
@@ -4951,22 +4951,22 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D75">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s">
         <v>91</v>
       </c>
-      <c r="G75" t="s">
-        <v>101</v>
-      </c>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N75">
         <v>6.0000000000000002E-5</v>
@@ -4981,22 +4981,22 @@
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T75" s="6">
         <v>45488</v>
       </c>
       <c r="U75" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V75" s="6">
         <v>45488</v>
       </c>
       <c r="W75" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="X75" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y75" s="6">
         <v>45488</v>
@@ -5010,22 +5010,22 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N76">
         <v>-9.9999999999999995E-7</v>
@@ -5040,19 +5040,19 @@
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T76" s="6">
         <v>45488</v>
       </c>
       <c r="U76" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V76" s="6">
         <v>45488</v>
       </c>
       <c r="X76" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y76" s="6">
         <v>45488</v>
@@ -5066,22 +5066,22 @@
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D77">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N77">
         <v>-9.9999999999999995E-7</v>
@@ -5096,19 +5096,19 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T77" s="6">
         <v>45488</v>
       </c>
       <c r="U77" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V77" s="6">
         <v>45488</v>
       </c>
       <c r="X77" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y77" s="6">
         <v>45488</v>
@@ -5122,22 +5122,22 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N78">
         <v>-9.9999999999999995E-7</v>
@@ -5152,19 +5152,19 @@
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T78" s="6">
         <v>45488</v>
       </c>
       <c r="U78" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V78" s="6">
         <v>45488</v>
       </c>
       <c r="X78" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y78" s="6">
         <v>45488</v>
@@ -5178,22 +5178,22 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D79">
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N79">
         <v>-9.9999999999999995E-7</v>
@@ -5208,19 +5208,19 @@
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T79" s="6">
         <v>45488</v>
       </c>
       <c r="U79" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V79" s="6">
         <v>45488</v>
       </c>
       <c r="X79" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y79" s="6">
         <v>45488</v>
@@ -5234,22 +5234,22 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D80">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5260,10 +5260,10 @@
       <c r="T80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="X80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y80" s="6">
         <v>45488</v>
@@ -5277,22 +5277,22 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H81" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N81">
         <v>1E-3</v>
@@ -5307,19 +5307,19 @@
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T81" s="6">
         <v>45488</v>
       </c>
       <c r="U81" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V81" s="6">
         <v>45488</v>
       </c>
       <c r="X81" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y81" s="6">
         <v>45488</v>
@@ -5333,22 +5333,22 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D82">
         <v>8</v>
       </c>
       <c r="E82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
         <v>103</v>
       </c>
-      <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s">
-        <v>113</v>
-      </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I82">
         <v>9.9999999999999995E-7</v>
@@ -5357,10 +5357,10 @@
         <v>50</v>
       </c>
       <c r="L82" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M82" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N82">
         <v>0.1</v>
@@ -5375,19 +5375,19 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T82" s="6">
         <v>45488</v>
       </c>
       <c r="U82" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V82" s="6">
         <v>45488</v>
       </c>
       <c r="X82" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y82" s="6">
         <v>45488</v>
@@ -5401,22 +5401,22 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D83">
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H83" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N83">
         <v>-9.9999999999999995E-7</v>
@@ -5431,19 +5431,19 @@
         <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T83" s="6">
         <v>45488</v>
       </c>
       <c r="U83" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V83" s="6">
         <v>45488</v>
       </c>
       <c r="X83" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y83" s="6">
         <v>45488</v>
@@ -5457,22 +5457,22 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D84">
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I84">
         <v>-9.9999999999999995E-7</v>
@@ -5493,19 +5493,19 @@
         <v>0</v>
       </c>
       <c r="S84" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T84" s="6">
         <v>45488</v>
       </c>
       <c r="U84" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V84" s="6">
         <v>45488</v>
       </c>
       <c r="X84" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y84" s="6">
         <v>45488</v>
@@ -5519,22 +5519,22 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D85">
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N85">
         <v>-9.9999999999999995E-7</v>
@@ -5549,19 +5549,19 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T85" s="6">
         <v>45488</v>
       </c>
       <c r="U85" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V85" s="6">
         <v>45488</v>
       </c>
       <c r="X85" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y85" s="6">
         <v>45488</v>
@@ -5575,22 +5575,22 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D86">
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H86" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I86">
         <v>-9.9999999999999995E-7</v>
@@ -5612,13 +5612,13 @@
       </c>
       <c r="T86" s="6"/>
       <c r="U86" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="V86" s="6">
         <v>45257</v>
       </c>
       <c r="X86" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y86" s="6">
         <v>45488</v>
@@ -5632,22 +5632,22 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D87">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H87" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I87">
         <v>9.9999999999999995E-7</v>
@@ -5668,19 +5668,19 @@
         <v>0</v>
       </c>
       <c r="S87" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T87" s="6">
         <v>45488</v>
       </c>
       <c r="U87" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V87" s="6">
         <v>45488</v>
       </c>
       <c r="X87" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y87" s="6">
         <v>45488</v>
@@ -5694,22 +5694,22 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D88">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H88" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I88">
         <v>-9.9999999999999995E-7</v>
@@ -5730,19 +5730,19 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T88" s="6">
         <v>45488</v>
       </c>
       <c r="U88" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V88" s="6">
         <v>45488</v>
       </c>
       <c r="X88" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y88" s="6">
         <v>45488</v>
@@ -5756,22 +5756,22 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D89">
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F89" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H89" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I89">
         <v>9.9999999999999995E-7</v>
@@ -5792,19 +5792,19 @@
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T89" s="6">
         <v>45488</v>
       </c>
       <c r="U89" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V89" s="6">
         <v>45488</v>
       </c>
       <c r="X89" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y89" s="6">
         <v>45488</v>
@@ -5818,22 +5818,22 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I90">
         <v>-9.9999999999999995E-7</v>
@@ -5854,19 +5854,19 @@
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T90" s="6">
         <v>45488</v>
       </c>
       <c r="U90" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V90" s="6">
         <v>45488</v>
       </c>
       <c r="X90" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y90" s="6">
         <v>45488</v>
@@ -5880,22 +5880,22 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D91">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F91" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I91">
         <v>-9.9999999999999995E-7</v>
@@ -5904,7 +5904,7 @@
         <v>70</v>
       </c>
       <c r="M91" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N91">
         <v>-9.9999999999999995E-7</v>
@@ -5919,19 +5919,19 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T91" s="6">
         <v>45488</v>
       </c>
       <c r="U91" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V91" s="6">
         <v>45488</v>
       </c>
       <c r="X91" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y91" s="6">
         <v>45488</v>
@@ -5945,22 +5945,22 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D92">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I92">
         <v>5.0000009999999996E-3</v>
@@ -5969,7 +5969,7 @@
         <v>100</v>
       </c>
       <c r="M92" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N92">
         <v>5.4000000000000003E-3</v>
@@ -5984,19 +5984,19 @@
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T92" s="6">
         <v>45488</v>
       </c>
       <c r="U92" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V92" s="6">
         <v>45488</v>
       </c>
       <c r="X92" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y92" s="6">
         <v>45488</v>
@@ -6010,22 +6010,22 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D93">
         <v>7</v>
       </c>
       <c r="E93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F93" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" t="s">
         <v>121</v>
-      </c>
-      <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>130</v>
-      </c>
-      <c r="H93" t="s">
-        <v>131</v>
       </c>
       <c r="I93">
         <v>-5</v>
@@ -6046,19 +6046,19 @@
         <v>0</v>
       </c>
       <c r="S93" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T93" s="6">
         <v>45488</v>
       </c>
       <c r="U93" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V93" s="6">
         <v>45488</v>
       </c>
       <c r="X93" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y93" s="6">
         <v>45488</v>
@@ -6072,22 +6072,22 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D94">
         <v>7</v>
       </c>
       <c r="E94" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s">
+        <v>120</v>
+      </c>
+      <c r="H94" t="s">
         <v>121</v>
-      </c>
-      <c r="F94" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" t="s">
-        <v>130</v>
-      </c>
-      <c r="H94" t="s">
-        <v>131</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -6108,19 +6108,19 @@
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T94" s="6">
         <v>45488</v>
       </c>
       <c r="U94" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V94" s="6">
         <v>45488</v>
       </c>
       <c r="X94" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y94" s="6">
         <v>45488</v>
@@ -6134,22 +6134,22 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D95">
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -6171,13 +6171,13 @@
       </c>
       <c r="T95" s="6"/>
       <c r="U95" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="V95" s="6">
         <v>45257</v>
       </c>
       <c r="X95" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y95" s="6">
         <v>45488</v>
@@ -6191,22 +6191,22 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D96">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H96" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -6227,19 +6227,19 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T96" s="6">
         <v>45488</v>
       </c>
       <c r="U96" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V96" s="6">
         <v>45488</v>
       </c>
       <c r="X96" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y96" s="6">
         <v>45488</v>
